--- a/data/processing/data_sigla.xlsx
+++ b/data/processing/data_sigla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BASELINE_SIGLA" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Controle" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BASELINE_SIGLA" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Controle" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9 x BACKUP 8GB RAM 8vCPU (WEBSERVER)</t>
+          <t>9 x BACKUP 16GB RAM 8vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -865,6 +865,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>Always On</t>
@@ -885,6 +886,8 @@
           <t>320</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>6x Daily</t>
@@ -904,7 +907,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4 x BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+          <t>4 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -957,6 +960,8 @@
           <t>230</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>2x Daily</t>
@@ -1004,6 +1009,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>Always On</t>
@@ -1024,6 +1030,8 @@
           <t>430</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>6x Daily</t>
@@ -1043,7 +1051,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 x BACKUP 24GB RAM 8vCPU (WEBSERVER)</t>
+          <t>3 x BACKUP 32GB RAM 8vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1071,6 +1079,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>Always On</t>
@@ -1091,6 +1100,8 @@
           <t>800</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>6x Daily</t>

--- a/data/processing/data_sigla.xlsx
+++ b/data/processing/data_sigla.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SCGTP0278CLD</t>
+          <t>MA0278</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,7 +515,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SCGTP0279CLD</t>
+          <t>MA0279</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -551,12 +551,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SCGTP0280CLD</t>
+          <t>MA0280</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,12 +587,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SCGTP0281CLD</t>
+          <t>MA0281</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Pre-Production</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SCGTP0282CLD</t>
+          <t>MA0282</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,78 +651,6 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SCGTP0283CLD</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>230</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SCGTP0284CLD</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>230</v>
-      </c>
-      <c r="E8" t="n">
-        <v>16</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>Windows Server</t>
         </is>
@@ -832,12 +760,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9 x BACKUP 16GB RAM 8vCPU (WEBSERVER)</t>
+          <t>4 x BACKUP 16GB RAM 8vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -862,18 +790,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Always On</t>
+          <t>Hours/Week</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
+          <t>On-Demand</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -890,24 +822,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>6x Daily</t>
+          <t>2x Daily</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Homologation</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
+          <t>3 x BACKUP 32GB RAM 8vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -922,7 +854,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>c6a.4xlarge</t>
+          <t>m6id.2xlarge</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -932,22 +864,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hours/Week</t>
+          <t>Always On</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>On-Demand</t>
+          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -957,19 +885,19 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>430</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2x Daily</t>
+          <t>6x Daily</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -981,7 +909,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 x BACKUP 32GB RAM 8vCPU (BACKUP)</t>
+          <t>3 x BACKUP 32GB RAM 8vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1027,7 +955,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>800</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -1046,12 +974,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Pre-Production</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3 x BACKUP 32GB RAM 8vCPU (WEBSERVER)</t>
+          <t>2 x BACKUP 16GB RAM 8vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1066,7 +994,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>m6id.2xlarge</t>
+          <t>c6i.2xlarge</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1076,18 +1004,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Always On</t>
+          <t>Hours/Week</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
+          <t>On-Demand</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1097,19 +1029,19 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6x Daily</t>
+          <t>2x Daily</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>

--- a/data/processing/data_sigla.xlsx
+++ b/data/processing/data_sigla.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,24 +479,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA0278</t>
+          <t>MA0290</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BACKUP 32GB RAM 8vCPU (BACKUP)</t>
+          <t>BACKUP 8GB RAM 8vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -515,31 +515,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA0279</t>
+          <t>MA0291</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BACKUP 24GB RAM 8vCPU (WEBSERVER)</t>
+          <t>BACKUP 8GB RAM 8vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>WEBSERVER</t>
+          <t>BACKUP</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA0280</t>
+          <t>MA0292</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BACKUP 8GB RAM 8vCPU (WEBSERVER)</t>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,34 +580,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux Server</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MA0281</t>
+          <t>MA0293</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pre-Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BACKUP 8GB RAM 8vCPU (WEBSERVER)</t>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -616,34 +616,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux Server</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MA0282</t>
+          <t>MA0294</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Homologation</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BACKUP 8GB RAM 8vCPU (WEBSERVER)</t>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>230</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -652,7 +652,331 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA0295</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>230</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA0296</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>230</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA0297</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>230</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA0298</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>230</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MA0299</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>230</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MA0300</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>230</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MA0301</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pre-Production</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BACKUP 24GB RAM 16vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>430</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BACKUP</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MA0302</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pre-Production</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BACKUP 24GB RAM 16vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BACKUP</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MA0303</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>BACKUP</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
         </is>
       </c>
     </row>
@@ -667,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +1089,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4 x BACKUP 16GB RAM 8vCPU (WEBSERVER)</t>
+          <t>10 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -775,12 +1099,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c6i.2xlarge</t>
+          <t>c6a.4xlarge</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -790,7 +1114,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -815,7 +1139,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>230</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -839,7 +1163,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3 x BACKUP 32GB RAM 8vCPU (BACKUP)</t>
+          <t>12 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -849,12 +1173,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>m6id.2xlarge</t>
+          <t>c6a.4xlarge</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -864,7 +1188,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -885,7 +1209,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>230</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -904,12 +1228,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 x BACKUP 32GB RAM 8vCPU (WEBSERVER)</t>
+          <t>4 x BACKUP 16GB RAM 8vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -924,7 +1248,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>m6id.2xlarge</t>
+          <t>c6i.2xlarge</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -934,18 +1258,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Always On</t>
+          <t>Hours/Week</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
+          <t>On-Demand</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -955,19 +1283,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>230</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>6x Daily</t>
+          <t>2x Daily</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -979,7 +1307,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2 x BACKUP 16GB RAM 8vCPU (WEBSERVER)</t>
+          <t>4 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -989,12 +1317,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>c6i.2xlarge</t>
+          <t>c6a.4xlarge</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1004,7 +1332,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1029,7 +1357,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>430</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -1040,6 +1368,80 @@
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>10</t>
         </is>

--- a/data/processing/data_sigla.xlsx
+++ b/data/processing/data_sigla.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,31 +479,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA0290</t>
+          <t>MA0283</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BACKUP 8GB RAM 8vCPU (BACKUP)</t>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>230</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BACKUP</t>
+          <t>WEBSERVER</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -515,31 +515,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA0291</t>
+          <t>MA0284</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BACKUP 8GB RAM 8vCPU (BACKUP)</t>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BACKUP</t>
+          <t>WEBSERVER</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA0292</t>
+          <t>MA0285</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -580,14 +580,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Linux Server</t>
+          <t>Windows Server</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MA0293</t>
+          <t>MA0286</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -597,17 +597,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+          <t>BACKUP 8GB RAM 4vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -616,24 +616,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Linux Server</t>
+          <t>Windows Server</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MA0294</t>
+          <t>MA0287</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+          <t>BACKUP 16GB RAM 4vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -643,340 +643,88 @@
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>WEBSERVER</t>
+          <t>BACKUP</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Linux Server</t>
+          <t>Windows Server</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MA0295</t>
+          <t>MA0288</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+          <t>BACKUP 16GB RAM 8vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WEBSERVER</t>
+          <t>BACKUP</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linux Server</t>
+          <t>Windows Server</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MA0296</t>
+          <t>MA0289</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+          <t>BACKUP 8GB RAM 8vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>230</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WEBSERVER</t>
+          <t>BACKUP</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Linux Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MA0297</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>230</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Linux Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MA0298</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>230</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Linux Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MA0299</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>230</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Linux Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MA0300</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>230</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Linux Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MA0301</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pre-Production</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BACKUP 24GB RAM 16vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>430</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>16</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>BACKUP</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Linux Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MA0302</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Pre-Production</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BACKUP 24GB RAM 16vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>BACKUP</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Linux Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MA0303</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>16</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>BACKUP</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Linux Server</t>
+          <t>Windows Server</t>
         </is>
       </c>
     </row>
@@ -991,7 +739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,12 +832,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Homologation</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
+          <t>4 x BACKUP 16GB RAM 8vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1099,12 +847,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Linux</t>
+          <t>Windows Server</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c6a.4xlarge</t>
+          <t>c6i.2xlarge</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1114,7 +862,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1158,12 +906,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
+          <t>6 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1173,7 +921,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Linux</t>
+          <t>Windows Server</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1188,18 +936,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Always On</t>
+          <t>Hours/Week</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
+          <t>On-Demand</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1216,24 +968,24 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6x Daily</t>
+          <t>2x Daily</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4 x BACKUP 16GB RAM 8vCPU (BACKUP)</t>
+          <t>2 x BACKUP 8GB RAM 4vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1248,7 +1000,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>c6i.2xlarge</t>
+          <t>c6in.xlarge</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1258,7 +1010,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1283,7 +1035,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>170</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -1302,12 +1054,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pre-Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
+          <t>2 x BACKUP 16GB RAM 4vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1317,12 +1069,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Linux</t>
+          <t>Windows Server</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>c6a.4xlarge</t>
+          <t>m6id.xlarge</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1332,7 +1084,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1357,7 +1109,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>230</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -1368,80 +1120,6 @@
         </is>
       </c>
       <c r="P5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sa-east-1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Linux</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>c6a.4xlarge</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Shared Instances</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Hours/Week</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>On-Demand</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>General Purpose SSD (gp3)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2x Daily</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>10</t>
         </is>

--- a/data/processing/data_sigla.xlsx
+++ b/data/processing/data_sigla.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,250 +479,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA0283</t>
+          <t>MA0278</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homologation</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+          <t>APLICACOES 32GB RAM 8vCPU (APLICACOES)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WEBSERVER</t>
+          <t>APLICACOES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MA0284</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>230</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MA0285</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>170</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MA0286</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BACKUP 8GB RAM 4vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>170</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>WEBSERVER</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MA0287</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 4vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>230</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>BACKUP</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MA0288</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BACKUP 16GB RAM 8vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>170</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>BACKUP</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MA0289</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BACKUP 8GB RAM 8vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>230</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>BACKUP</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>Windows Server</t>
         </is>
@@ -739,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,12 +616,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4 x BACKUP 16GB RAM 8vCPU (BACKUP)</t>
+          <t>3 x APLICACOES 32GB RAM 8vCPU (APLICACOES)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -852,7 +636,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c6i.2xlarge</t>
+          <t>m6id.2xlarge</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -862,22 +646,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hours/Week</t>
+          <t>Always On</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>On-Demand</t>
+          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -887,241 +667,19 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>430</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2x Daily</t>
+          <t>6x Daily</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sa-east-1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>c6a.4xlarge</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Shared Instances</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Hours/Week</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>On-Demand</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>General Purpose SSD (gp3)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2x Daily</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2 x BACKUP 8GB RAM 4vCPU (WEBSERVER)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sa-east-1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>c6in.xlarge</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Shared Instances</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Hours/Week</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>On-Demand</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>General Purpose SSD (gp3)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2x Daily</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Homologation</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2 x BACKUP 16GB RAM 4vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sa-east-1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>m6id.xlarge</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Shared Instances</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Hours/Week</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>On-Demand</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>General Purpose SSD (gp3)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2x Daily</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
     </row>

--- a/data/processing/data_sigla.xlsx
+++ b/data/processing/data_sigla.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,36 +479,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA0278</t>
+          <t>MA0304</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>230</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MA0305</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Homologation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>230</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MA0306</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>APLICACOES 32GB RAM 8vCPU (APLICACOES)</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>430</v>
-      </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>APLICACOES</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Windows Server</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>230</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MA0309</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>230</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>WEBSERVER</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA0315</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BACKUP 16GB RAM 16vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BACKUP</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Linux Server</t>
         </is>
       </c>
     </row>
@@ -523,7 +667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,12 +760,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Homologation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3 x APLICACOES 32GB RAM 8vCPU (APLICACOES)</t>
+          <t>4 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -631,12 +775,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>m6id.2xlarge</t>
+          <t>c6a.4xlarge</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -646,18 +790,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Always On</t>
+          <t>Hours/Week</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
+          <t>On-Demand</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -667,19 +815,163 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>230</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Always On</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1 Yr No Upfront EC2 Instance Savings Plan</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>6x Daily</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sa-east-1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>c6a.4xlarge</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Shared Instances</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Hours/Week</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>On-Demand</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>General Purpose SSD (gp3)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2x Daily</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
